--- a/sample_data/outcome_data.xlsx
+++ b/sample_data/outcome_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Outcome Measure</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive Knee Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
   </si>
 </sst>
 </file>
@@ -401,6 +407,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>45925</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/sample_data/outcome_data.xlsx
+++ b/sample_data/outcome_data.xlsx
@@ -1,62 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Phase0_data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Phase1_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Phase2_data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Outcome Measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y-Balance Anterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">involved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive Knee Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Outcome Measure</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Passive Knee Extension</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Passive Knee Flexion</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -91,14 +106,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -383,7 +408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -406,30 +433,640 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45925</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45927.490125505799</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45927.490516910999</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45927.490788639901</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45927.4909419994</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45927.491116751298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45840</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45927.4911578541</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45927.491668830902</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45927.4917209458</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45927.491815822999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45927.4920079605</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45927.492063352503</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45927.492107304803</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45927.492365461701</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45927.492532065502</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45927.492665429701</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45927.492723115298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45927.492847078996</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45844</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45927.493053176098</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45927.493249517698</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45927.493305844502</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45927.4933835626</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45927.493485974999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45927.493545001897</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45927.493637593601</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -437,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -460,10 +1097,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -471,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -494,29 +1137,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>45925</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/sample_data/outcome_data.xlsx
+++ b/sample_data/outcome_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Phase</t>
   </si>
@@ -63,14 +63,36 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive Knee Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -106,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,6 +1087,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45939</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>45939.549387367</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45939</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>45939.5499285082</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45939</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>45939.5879193078</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/sample_data/outcome_data.xlsx
+++ b/sample_data/outcome_data.xlsx
@@ -7,15 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Phase0_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Phase1_data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Phase2_data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Phase</t>
   </si>
@@ -65,25 +63,118 @@
     <t>grade</t>
   </si>
   <si>
-    <t xml:space="preserve">Passive Knee Extension</t>
+    <t>Passive Knee Extension</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Quad Strength</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Single Leg Calf Raises</t>
+  </si>
+  <si>
+    <t>reps</t>
+  </si>
+  <si>
+    <t>Single Leg Bridge</t>
+  </si>
+  <si>
+    <t>TrapBar Deadlift</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Hamstring Strength</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Passive Knee Flexion</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>SL Balance (eyes open)</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>Side Bridge</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swelling</t>
   </si>
   <si>
     <t xml:space="preserve">Left</t>
   </si>
   <si>
-    <t xml:space="preserve">degrees</t>
+    <t xml:space="preserve">grade</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quad Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">Quads Lag Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lag</t>
   </si>
 </sst>
 </file>
@@ -432,10 +523,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1097,8 +1191,8 @@
       <c r="C26" s="1" t="n">
         <v>45939</v>
       </c>
-      <c r="D26" s="3" t="n">
-        <v>45939.549387367</v>
+      <c r="D26" s="2" t="n">
+        <v>45939.549387366998</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1123,8 +1217,8 @@
       <c r="C27" s="1" t="n">
         <v>45939</v>
       </c>
-      <c r="D27" s="3" t="n">
-        <v>45939.5499285082</v>
+      <c r="D27" s="2" t="n">
+        <v>45939.549928508197</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -1149,7 +1243,7 @@
       <c r="C28" s="1" t="n">
         <v>45939</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="2" t="n">
         <v>45939.5879193078</v>
       </c>
       <c r="E28" t="s">
@@ -1165,84 +1259,446 @@
         <v>19</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45944.538181515702</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45944.538667036002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45944.539097769302</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45944.539161908397</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45944.5411305854</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45944.541474126003</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="n">
+        <v>110</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45944.549779750203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="n">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45944.549835744998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="n">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45944.554524723499</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45944.5545722057</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45944.554870663203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="n">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45944.554918218302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="n">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45944.555027820497</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45944.5550978479</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="n">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45944.556061638999</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>45944.55742558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45944</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>45944.5582584667</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
